--- a/xls/conf_mat_formatter.xlsx
+++ b/xls/conf_mat_formatter.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="135" windowWidth="18195" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="195" windowWidth="18195" windowHeight="11700"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
   <si>
     <t>road1</t>
   </si>
@@ -36,6 +36,12 @@
   </si>
   <si>
     <t>False positive</t>
+  </si>
+  <si>
+    <t>roof1</t>
+  </si>
+  <si>
+    <t>roof2</t>
   </si>
 </sst>
 </file>
@@ -654,20 +660,32 @@
     <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="21" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="21" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="22" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -675,20 +693,8 @@
     <xf numFmtId="164" fontId="22" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -736,1967 +742,7 @@
     <cellStyle name="Total" xfId="18" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="15" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="730">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="450">
     <dxf>
       <fill>
         <patternFill>
@@ -6151,147 +4197,147 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>981</v>
+        <v>102</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="C1">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="D1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E1">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="F1">
         <f>SUM(A1:E1)</f>
-        <v>993</v>
+        <v>292</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>112</v>
+        <v>83</v>
       </c>
       <c r="B2">
-        <v>1247</v>
+        <v>71</v>
       </c>
       <c r="C2">
-        <v>526</v>
+        <v>1180</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>245</v>
       </c>
       <c r="F2">
         <f t="shared" ref="F2:F5" si="0">SUM(A2:E2)</f>
-        <v>1886</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B3">
-        <v>336</v>
+        <v>73</v>
       </c>
       <c r="C3">
-        <v>755</v>
+        <v>2045</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>137</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="F3">
         <f t="shared" si="0"/>
-        <v>1104</v>
+        <v>2311</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="B4">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="C4">
-        <v>105</v>
+        <v>67</v>
       </c>
       <c r="D4">
-        <v>934</v>
+        <v>1369</v>
       </c>
       <c r="E4">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="F4">
         <f t="shared" si="0"/>
-        <v>1138</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>61</v>
+        <v>203</v>
       </c>
       <c r="B5">
-        <v>231</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D5">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="E5">
-        <v>385</v>
+        <v>450</v>
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
-        <v>729</v>
+        <v>708</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <f>SUM(A1:A5)</f>
-        <v>1191</v>
+        <v>465</v>
       </c>
       <c r="B6">
         <f t="shared" ref="B6:E6" si="1">SUM(B1:B5)</f>
-        <v>1865</v>
+        <v>237</v>
       </c>
       <c r="C6">
         <f t="shared" si="1"/>
-        <v>1412</v>
+        <v>3340</v>
       </c>
       <c r="D6">
         <f t="shared" si="1"/>
-        <v>973</v>
+        <v>1587</v>
       </c>
       <c r="E6">
         <f t="shared" si="1"/>
-        <v>409</v>
+        <v>853</v>
       </c>
       <c r="F6">
         <f>SUM(A6:E6)</f>
-        <v>5850</v>
+        <v>6482</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <f>SUM(A1:E5)</f>
-        <v>5850</v>
+        <v>6482</v>
       </c>
     </row>
   </sheetData>
@@ -6313,24 +4359,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I20"/>
+  <dimension ref="A2:O20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="6" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="5.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:8" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:15" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="3"/>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="3" t="s">
@@ -6349,319 +4396,411 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="13" t="s">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B4" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="5">
         <f>data!A1</f>
-        <v>981</v>
-      </c>
-      <c r="D4" s="14">
+        <v>102</v>
+      </c>
+      <c r="D4" s="5">
         <f>data!B1</f>
+        <v>63</v>
+      </c>
+      <c r="E4" s="5">
+        <f>data!C1</f>
+        <v>45</v>
+      </c>
+      <c r="F4" s="5">
+        <f>data!D1</f>
+        <v>5</v>
+      </c>
+      <c r="G4" s="5">
+        <f>data!E1</f>
+        <v>77</v>
+      </c>
+      <c r="H4" s="9">
+        <f>1-C4/SUM(C4:G4)</f>
+        <v>0.65068493150684925</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="12"/>
+      <c r="C5" s="4">
+        <f>C4/(data!A6+data!$F$1-C4)</f>
+        <v>0.15572519083969466</v>
+      </c>
+      <c r="D5" s="4">
+        <f>D4/(data!B6+data!$F$1-D4)</f>
+        <v>0.13519313304721031</v>
+      </c>
+      <c r="E5" s="4">
+        <f>E4/(data!C6+data!$F$1-E4)</f>
+        <v>1.2545302481182047E-2</v>
+      </c>
+      <c r="F5" s="4">
+        <f>F4/(data!D6+data!$F$1-F4)</f>
+        <v>2.6680896478121665E-3</v>
+      </c>
+      <c r="G5" s="4">
+        <f>G4/(data!E6+data!$F$1-G4)</f>
+        <v>7.2097378277153554E-2</v>
+      </c>
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B6" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="14">
-        <f>data!C1</f>
-        <v>11</v>
-      </c>
-      <c r="F4" s="14">
-        <f>data!D1</f>
-        <v>0</v>
-      </c>
-      <c r="G4" s="14">
-        <f>data!E1</f>
-        <v>0</v>
-      </c>
-      <c r="H4" s="5">
-        <f>1-C4/SUM(C4:G4)</f>
-        <v>1.2084592145015116E-2</v>
+      <c r="C6" s="5">
+        <f>data!A2</f>
+        <v>83</v>
+      </c>
+      <c r="D6" s="5">
+        <f>data!B2</f>
+        <v>71</v>
+      </c>
+      <c r="E6" s="5">
+        <f>data!C2</f>
+        <v>1180</v>
+      </c>
+      <c r="F6" s="5">
+        <f>data!D2</f>
+        <v>28</v>
+      </c>
+      <c r="G6" s="5">
+        <f>data!E2</f>
+        <v>245</v>
+      </c>
+      <c r="H6" s="9">
+        <f>1-D6/SUM(C6:G6)</f>
+        <v>0.95581829495955195</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="15"/>
-      <c r="C5" s="11">
-        <f>C4/(data!A6+data!$F$1)</f>
-        <v>0.44917582417582419</v>
-      </c>
-      <c r="D5" s="11">
-        <f>D4/(data!B6+data!$F$1)</f>
-        <v>3.4989503149055281E-4</v>
-      </c>
-      <c r="E5" s="11">
-        <f>E4/(data!C6+data!$F$1)</f>
-        <v>4.5738045738045741E-3</v>
-      </c>
-      <c r="F5" s="11">
-        <f>F4/(data!D6+data!$F$1)</f>
-        <v>0</v>
-      </c>
-      <c r="G5" s="11">
-        <f>G4/(data!E6+data!$F$1)</f>
-        <v>0</v>
-      </c>
-      <c r="H5" s="7"/>
+    <row r="7" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="8"/>
+      <c r="C7" s="4">
+        <f>C6/(data!A6+data!$F$2-C6)</f>
+        <v>4.1729512317747609E-2</v>
+      </c>
+      <c r="D7" s="4">
+        <f>D6/(data!B6+data!$F$2-D6)</f>
+        <v>4.0045121263395378E-2</v>
+      </c>
+      <c r="E7" s="4">
+        <f>E6/(data!C6+data!$F$2-E6)</f>
+        <v>0.3132466153437749</v>
+      </c>
+      <c r="F7" s="4">
+        <f>F6/(data!D6+data!$F$2-F6)</f>
+        <v>8.843967150979154E-3</v>
+      </c>
+      <c r="G7" s="4">
+        <f>G6/(data!E6+data!$F$2-G6)</f>
+        <v>0.11060948081264109</v>
+      </c>
+      <c r="H7" s="10"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="14">
-        <f>data!A2</f>
-        <v>112</v>
-      </c>
-      <c r="D6" s="14">
-        <f>data!B2</f>
-        <v>1247</v>
-      </c>
-      <c r="E6" s="14">
-        <f>data!C2</f>
-        <v>526</v>
-      </c>
-      <c r="F6" s="14">
-        <f>data!D2</f>
-        <v>0</v>
-      </c>
-      <c r="G6" s="14">
-        <f>data!E2</f>
-        <v>1</v>
-      </c>
-      <c r="H6" s="5">
-        <f>1-D6/SUM(C6:G6)</f>
-        <v>0.33881230116648997</v>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B8" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="5">
+        <f>data!A3</f>
+        <v>13</v>
+      </c>
+      <c r="D8" s="5">
+        <f>data!B3</f>
+        <v>73</v>
+      </c>
+      <c r="E8" s="5">
+        <f>data!C3</f>
+        <v>2045</v>
+      </c>
+      <c r="F8" s="5">
+        <f>data!D3</f>
+        <v>137</v>
+      </c>
+      <c r="G8" s="5">
+        <f>data!E3</f>
+        <v>43</v>
+      </c>
+      <c r="H8" s="9">
+        <f>1-E8/SUM(C8:G8)</f>
+        <v>0.1151016875811337</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="6"/>
-      <c r="C7" s="11">
-        <f>C6/(data!A6+data!$F$2)</f>
-        <v>3.6399090022749429E-2</v>
-      </c>
-      <c r="D7" s="11">
-        <f>D6/(data!B6+data!$F$2)</f>
-        <v>0.33244468141828848</v>
-      </c>
-      <c r="E7" s="11">
-        <f>E6/(data!C6+data!$F$2)</f>
-        <v>0.15949060036385687</v>
-      </c>
-      <c r="F7" s="11">
-        <f>F6/(data!D6+data!$F$2)</f>
-        <v>0</v>
-      </c>
-      <c r="G7" s="11">
-        <f>G6/(data!E6+data!$F$2)</f>
-        <v>4.3572984749455336E-4</v>
-      </c>
-      <c r="H7" s="7"/>
+    <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="8"/>
+      <c r="C9" s="4">
+        <f>C8/(data!A6+data!$F$3-C8)</f>
+        <v>4.7050307636626858E-3</v>
+      </c>
+      <c r="D9" s="4">
+        <f>D8/(data!B6+data!$F$3-D8)</f>
+        <v>2.9494949494949494E-2</v>
+      </c>
+      <c r="E9" s="4">
+        <f>E8/(data!C6+data!$F$3-E8)</f>
+        <v>0.56711037160288413</v>
+      </c>
+      <c r="F9" s="4">
+        <f>F8/(data!D6+data!$F$3-F8)</f>
+        <v>3.6426482318532308E-2</v>
+      </c>
+      <c r="G9" s="4">
+        <f>G8/(data!E6+data!$F$3-G8)</f>
+        <v>1.3777635373277796E-2</v>
+      </c>
+      <c r="H9" s="10"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="14">
-        <f>data!A3</f>
-        <v>10</v>
-      </c>
-      <c r="D8" s="14">
-        <f>data!B3</f>
-        <v>336</v>
-      </c>
-      <c r="E8" s="14">
-        <f>data!C3</f>
-        <v>755</v>
-      </c>
-      <c r="F8" s="14">
-        <f>data!D3</f>
-        <v>2</v>
-      </c>
-      <c r="G8" s="14">
-        <f>data!E3</f>
-        <v>1</v>
-      </c>
-      <c r="H8" s="5">
-        <f>1-E8/SUM(C8:G8)</f>
-        <v>0.31612318840579712</v>
+    <row r="10" spans="1:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="5">
+        <f>data!A4</f>
+        <v>64</v>
+      </c>
+      <c r="D10" s="5">
+        <f>data!B4</f>
+        <v>26</v>
+      </c>
+      <c r="E10" s="5">
+        <f>data!C4</f>
+        <v>67</v>
+      </c>
+      <c r="F10" s="5">
+        <f>data!D4</f>
+        <v>1369</v>
+      </c>
+      <c r="G10" s="5">
+        <f>data!E4</f>
+        <v>38</v>
+      </c>
+      <c r="H10" s="9">
+        <f>1-F10/SUM(C10:G10)</f>
+        <v>0.1246803069053708</v>
+      </c>
+      <c r="L10" s="3"/>
+      <c r="M10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="6"/>
-      <c r="C9" s="11">
-        <f>C8/(data!A6+data!$F$3)</f>
-        <v>4.3572984749455342E-3</v>
-      </c>
-      <c r="D9" s="11">
-        <f>D8/(data!B6+data!$F$3)</f>
-        <v>0.11316941731222634</v>
-      </c>
-      <c r="E9" s="11">
-        <f>E8/(data!C6+data!$F$3)</f>
-        <v>0.30007949125596184</v>
-      </c>
-      <c r="F9" s="11">
-        <f>F8/(data!D6+data!$F$3)</f>
-        <v>9.6292729898892631E-4</v>
-      </c>
-      <c r="G9" s="11">
-        <f>G8/(data!E6+data!$F$3)</f>
-        <v>6.6093853271645734E-4</v>
-      </c>
-      <c r="H9" s="7"/>
+    <row r="11" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="8"/>
+      <c r="C11" s="4">
+        <f>C10/(data!A6+data!$F$4-C10)</f>
+        <v>3.2569974554707379E-2</v>
+      </c>
+      <c r="D11" s="4">
+        <f>D10/(data!B6+data!$F$4-D10)</f>
+        <v>1.4647887323943662E-2</v>
+      </c>
+      <c r="E11" s="4">
+        <f>E10/(data!C6+data!$F$4-E10)</f>
+        <v>1.3851560884845978E-2</v>
+      </c>
+      <c r="F11" s="4">
+        <f>F10/(data!D6+data!$F$4-F10)</f>
+        <v>0.76823793490460157</v>
+      </c>
+      <c r="G11" s="4">
+        <f>G10/(data!E6+data!$F$4-G10)</f>
+        <v>1.5973097940311057E-2</v>
+      </c>
+      <c r="H11" s="10"/>
+      <c r="L11" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="M11" s="5">
+        <f>C4</f>
+        <v>102</v>
+      </c>
+      <c r="N11" s="5">
+        <f>D4</f>
+        <v>63</v>
+      </c>
+      <c r="O11" s="9">
+        <f>H4</f>
+        <v>0.65068493150684925</v>
+      </c>
     </row>
-    <row r="10" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="4" t="s">
+    <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="5">
+        <f>data!A5</f>
+        <v>203</v>
+      </c>
+      <c r="D12" s="5">
+        <f>data!B5</f>
+        <v>4</v>
+      </c>
+      <c r="E12" s="5">
+        <f>data!C5</f>
         <v>3</v>
       </c>
-      <c r="C10" s="14">
-        <f>data!A4</f>
-        <v>27</v>
-      </c>
-      <c r="D10" s="14">
-        <f>data!B4</f>
-        <v>50</v>
-      </c>
-      <c r="E10" s="14">
-        <f>data!C4</f>
-        <v>105</v>
-      </c>
-      <c r="F10" s="14">
-        <f>data!D4</f>
-        <v>934</v>
-      </c>
-      <c r="G10" s="14">
-        <f>data!E4</f>
-        <v>22</v>
-      </c>
-      <c r="H10" s="5">
-        <f>1-F10/SUM(C10:G10)</f>
-        <v>0.17926186291739898</v>
-      </c>
+      <c r="F12" s="5">
+        <f>data!D5</f>
+        <v>48</v>
+      </c>
+      <c r="G12" s="5">
+        <f>data!E5</f>
+        <v>450</v>
+      </c>
+      <c r="H12" s="9">
+        <f>1-G12/SUM(C12:G12)</f>
+        <v>0.36440677966101698</v>
+      </c>
+      <c r="L12" s="12"/>
+      <c r="M12" s="4">
+        <f>C5</f>
+        <v>0.15572519083969466</v>
+      </c>
+      <c r="N12" s="4">
+        <f>D5</f>
+        <v>0.13519313304721031</v>
+      </c>
+      <c r="O12" s="10"/>
     </row>
-    <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="6"/>
-      <c r="C11" s="11">
-        <f>C10/(data!A6+data!$F$4)</f>
-        <v>1.1592958351223702E-2</v>
-      </c>
-      <c r="D11" s="11">
-        <f>D10/(data!B6+data!$F$4)</f>
-        <v>1.6650016650016652E-2</v>
-      </c>
-      <c r="E11" s="11">
-        <f>E10/(data!C6+data!$F$4)</f>
-        <v>4.1176470588235294E-2</v>
-      </c>
-      <c r="F11" s="11">
-        <f>F10/(data!D6+data!$F$4)</f>
-        <v>0.4424443391757461</v>
-      </c>
-      <c r="G11" s="11">
-        <f>G10/(data!E6+data!$F$4)</f>
-        <v>1.4221073044602456E-2</v>
-      </c>
-      <c r="H11" s="7"/>
+    <row r="13" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="8"/>
+      <c r="C13" s="4">
+        <f>C12/(data!A6+data!$F$5-C12)</f>
+        <v>0.20927835051546392</v>
+      </c>
+      <c r="D13" s="4">
+        <f>D12/(data!B6+data!$F$5-D12)</f>
+        <v>4.2507970244420826E-3</v>
+      </c>
+      <c r="E13" s="4">
+        <f>E12/(data!C6+data!$F$5-E12)</f>
+        <v>7.4165636588380713E-4</v>
+      </c>
+      <c r="F13" s="4">
+        <f>F12/(data!D6+data!$F$5-F12)</f>
+        <v>2.1361815754339118E-2</v>
+      </c>
+      <c r="G13" s="4">
+        <f>G12/(data!E6+data!$F$5-G12)</f>
+        <v>0.40504050405040504</v>
+      </c>
+      <c r="H13" s="15"/>
+      <c r="L13" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="M13" s="5">
+        <f>C6</f>
+        <v>83</v>
+      </c>
+      <c r="N13" s="5">
+        <f>D6</f>
+        <v>71</v>
+      </c>
+      <c r="O13" s="9">
+        <f>H6</f>
+        <v>0.95581829495955195</v>
+      </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="14">
-        <f>data!A5</f>
-        <v>61</v>
-      </c>
-      <c r="D12" s="14">
-        <f>data!B5</f>
-        <v>231</v>
-      </c>
-      <c r="E12" s="14">
-        <f>data!C5</f>
-        <v>15</v>
-      </c>
-      <c r="F12" s="14">
-        <f>data!D5</f>
-        <v>37</v>
-      </c>
-      <c r="G12" s="14">
-        <f>data!E5</f>
-        <v>385</v>
-      </c>
-      <c r="H12" s="5">
-        <f>1-G12/SUM(C12:G12)</f>
-        <v>0.47187928669410151</v>
-      </c>
+    <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="9">
+        <f>1-C4/(C4+C6+C8+C10+C12)</f>
+        <v>0.78064516129032258</v>
+      </c>
+      <c r="D14" s="9">
+        <f>1-D6/(D4+D6+D8+D10+D12)</f>
+        <v>0.70042194092827004</v>
+      </c>
+      <c r="E14" s="9">
+        <f>1-E8/(E4+E6+E8+E10+E12)</f>
+        <v>0.38772455089820357</v>
+      </c>
+      <c r="F14" s="9">
+        <f>1-F10/(F4+F6+F8+F10+F12)</f>
+        <v>0.13736609955891621</v>
+      </c>
+      <c r="G14" s="9">
+        <f>1-G12/(G4+G6+G8+G10+G12)</f>
+        <v>0.47245017584994142</v>
+      </c>
+      <c r="H14" s="13">
+        <f>(C4+D6+E8+F10+G12)/data!A10</f>
+        <v>0.62280160444307309</v>
+      </c>
+      <c r="L14" s="8"/>
+      <c r="M14" s="4">
+        <f>C7</f>
+        <v>4.1729512317747609E-2</v>
+      </c>
+      <c r="N14" s="4">
+        <f>D7</f>
+        <v>4.0045121263395378E-2</v>
+      </c>
+      <c r="O14" s="10"/>
     </row>
-    <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="6"/>
-      <c r="C13" s="11">
-        <f>C12/(data!A6+data!$F$5)</f>
-        <v>3.1770833333333331E-2</v>
-      </c>
-      <c r="D13" s="11">
-        <f>D12/(data!B6+data!$F$5)</f>
-        <v>8.9051657671549725E-2</v>
-      </c>
-      <c r="E13" s="11">
-        <f>E12/(data!C6+data!$F$5)</f>
-        <v>7.0060719290051376E-3</v>
-      </c>
-      <c r="F13" s="11">
-        <f>F12/(data!D6+data!$F$5)</f>
-        <v>2.1739130434782608E-2</v>
-      </c>
-      <c r="G13" s="11">
-        <f>G12/(data!E6+data!$F$5)</f>
-        <v>0.33831282952548331</v>
-      </c>
-      <c r="H13" s="8"/>
+    <row r="15" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="8"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="14"/>
+      <c r="L15" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="M15" s="9">
+        <f>C14</f>
+        <v>0.78064516129032258</v>
+      </c>
+      <c r="N15" s="9">
+        <f>D14</f>
+        <v>0.70042194092827004</v>
+      </c>
+      <c r="O15" s="13">
+        <f>H14</f>
+        <v>0.62280160444307309</v>
+      </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="5">
-        <f>1-C4/SUM(C4:C13)</f>
-        <v>0.17669107251165572</v>
-      </c>
-      <c r="D14" s="5">
-        <f>1-D6/SUM(D4:D13)</f>
-        <v>0.33156501481644585</v>
-      </c>
-      <c r="E14" s="5">
-        <f>1-E8/SUM(E4:E13)</f>
-        <v>0.46549139015052721</v>
-      </c>
-      <c r="F14" s="5">
-        <f>1-F10/SUM(F4:F13)</f>
-        <v>4.0540893059173189E-2</v>
-      </c>
-      <c r="G14" s="5">
-        <f>1-G12/SUM(G4:G13)</f>
-        <v>5.9492890137514687E-2</v>
-      </c>
-      <c r="H14" s="9">
-        <f>(C4+D6+E8+F10+G12)/data!A10</f>
-        <v>0.73538461538461541</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="6"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="10"/>
+    <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L16" s="8"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="14"/>
     </row>
     <row r="20" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I20" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="25">
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="O15:O16"/>
     <mergeCell ref="H14:H15"/>
     <mergeCell ref="F14:F15"/>
     <mergeCell ref="G14:G15"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="H6:H7"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="H12:H13"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="C14:C15"/>
     <mergeCell ref="D14:D15"/>
@@ -6671,858 +4810,991 @@
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="B12:B13"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="H12:H13"/>
   </mergeCells>
   <conditionalFormatting sqref="C4">
-    <cfRule type="expression" dxfId="729" priority="1713">
+    <cfRule type="expression" dxfId="449" priority="1753">
       <formula>AND(0.8&lt;=C5,C5&lt;=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="728" priority="1714">
+    <cfRule type="expression" dxfId="448" priority="1754">
       <formula>AND(0.6&lt;=C5,C5&lt;=0.8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="727" priority="1715">
+    <cfRule type="expression" dxfId="447" priority="1755">
       <formula>AND(0.4&lt;=C5,C5&lt;=0.6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="726" priority="1716">
+    <cfRule type="expression" dxfId="446" priority="1756">
       <formula>AND(0.2&lt;=C5,C5&lt;=0.4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="725" priority="1717">
+    <cfRule type="expression" dxfId="445" priority="1757">
       <formula>AND(C5&lt;0.2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="expression" dxfId="724" priority="591">
+    <cfRule type="expression" dxfId="444" priority="631">
       <formula>AND(0.8&lt;=C5,C5&lt;=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="723" priority="592">
+    <cfRule type="expression" dxfId="443" priority="632">
       <formula>AND(0.6&lt;=C5,C5&lt;=0.8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="722" priority="593">
+    <cfRule type="expression" dxfId="442" priority="633">
       <formula>AND(0.4&lt;=C5,C5&lt;=0.6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="721" priority="594">
+    <cfRule type="expression" dxfId="441" priority="634">
       <formula>AND(0.2&lt;=C5,C5&lt;=0.4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="720" priority="595">
+    <cfRule type="expression" dxfId="440" priority="635">
       <formula>AND(C5&lt;0.2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="expression" dxfId="479" priority="236">
+    <cfRule type="expression" dxfId="439" priority="276">
       <formula>AND(0.8&lt;=D5,D5&lt;=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="478" priority="237">
+    <cfRule type="expression" dxfId="438" priority="277">
       <formula>AND(0.6&lt;=D5,D5&lt;=0.8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="477" priority="238">
+    <cfRule type="expression" dxfId="437" priority="278">
       <formula>AND(0.4&lt;=D5,D5&lt;=0.6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="476" priority="239">
+    <cfRule type="expression" dxfId="436" priority="279">
       <formula>AND(0.2&lt;=D5,D5&lt;=0.4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="475" priority="240">
+    <cfRule type="expression" dxfId="435" priority="280">
       <formula>AND(D5&lt;0.2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="expression" dxfId="469" priority="231">
+    <cfRule type="expression" dxfId="434" priority="271">
       <formula>AND(0.8&lt;=D5,D5&lt;=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="468" priority="232">
+    <cfRule type="expression" dxfId="433" priority="272">
       <formula>AND(0.6&lt;=D5,D5&lt;=0.8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="467" priority="233">
+    <cfRule type="expression" dxfId="432" priority="273">
       <formula>AND(0.4&lt;=D5,D5&lt;=0.6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="466" priority="234">
+    <cfRule type="expression" dxfId="431" priority="274">
       <formula>AND(0.2&lt;=D5,D5&lt;=0.4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="465" priority="235">
+    <cfRule type="expression" dxfId="430" priority="275">
       <formula>AND(D5&lt;0.2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="expression" dxfId="459" priority="226">
+    <cfRule type="expression" dxfId="429" priority="266">
       <formula>AND(0.8&lt;=E5,E5&lt;=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="458" priority="227">
+    <cfRule type="expression" dxfId="428" priority="267">
       <formula>AND(0.6&lt;=E5,E5&lt;=0.8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="457" priority="228">
+    <cfRule type="expression" dxfId="427" priority="268">
       <formula>AND(0.4&lt;=E5,E5&lt;=0.6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="456" priority="229">
+    <cfRule type="expression" dxfId="426" priority="269">
       <formula>AND(0.2&lt;=E5,E5&lt;=0.4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="455" priority="230">
+    <cfRule type="expression" dxfId="425" priority="270">
       <formula>AND(E5&lt;0.2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="expression" dxfId="449" priority="221">
+    <cfRule type="expression" dxfId="424" priority="261">
       <formula>AND(0.8&lt;=E5,E5&lt;=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="448" priority="222">
+    <cfRule type="expression" dxfId="423" priority="262">
       <formula>AND(0.6&lt;=E5,E5&lt;=0.8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="447" priority="223">
+    <cfRule type="expression" dxfId="422" priority="263">
       <formula>AND(0.4&lt;=E5,E5&lt;=0.6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="446" priority="224">
+    <cfRule type="expression" dxfId="421" priority="264">
       <formula>AND(0.2&lt;=E5,E5&lt;=0.4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="445" priority="225">
+    <cfRule type="expression" dxfId="420" priority="265">
       <formula>AND(E5&lt;0.2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="expression" dxfId="439" priority="216">
+    <cfRule type="expression" dxfId="419" priority="256">
       <formula>AND(0.8&lt;=F5,F5&lt;=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="438" priority="217">
+    <cfRule type="expression" dxfId="418" priority="257">
       <formula>AND(0.6&lt;=F5,F5&lt;=0.8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="437" priority="218">
+    <cfRule type="expression" dxfId="417" priority="258">
       <formula>AND(0.4&lt;=F5,F5&lt;=0.6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="436" priority="219">
+    <cfRule type="expression" dxfId="416" priority="259">
       <formula>AND(0.2&lt;=F5,F5&lt;=0.4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="435" priority="220">
+    <cfRule type="expression" dxfId="415" priority="260">
       <formula>AND(F5&lt;0.2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="expression" dxfId="429" priority="211">
+    <cfRule type="expression" dxfId="414" priority="251">
       <formula>AND(0.8&lt;=F5,F5&lt;=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="428" priority="212">
+    <cfRule type="expression" dxfId="413" priority="252">
       <formula>AND(0.6&lt;=F5,F5&lt;=0.8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="427" priority="213">
+    <cfRule type="expression" dxfId="412" priority="253">
       <formula>AND(0.4&lt;=F5,F5&lt;=0.6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="426" priority="214">
+    <cfRule type="expression" dxfId="411" priority="254">
       <formula>AND(0.2&lt;=F5,F5&lt;=0.4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="425" priority="215">
+    <cfRule type="expression" dxfId="410" priority="255">
       <formula>AND(F5&lt;0.2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="expression" dxfId="419" priority="206">
+    <cfRule type="expression" dxfId="409" priority="246">
       <formula>AND(0.8&lt;=G5,G5&lt;=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="418" priority="207">
+    <cfRule type="expression" dxfId="408" priority="247">
       <formula>AND(0.6&lt;=G5,G5&lt;=0.8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="417" priority="208">
+    <cfRule type="expression" dxfId="407" priority="248">
       <formula>AND(0.4&lt;=G5,G5&lt;=0.6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="416" priority="209">
+    <cfRule type="expression" dxfId="406" priority="249">
       <formula>AND(0.2&lt;=G5,G5&lt;=0.4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="415" priority="210">
+    <cfRule type="expression" dxfId="405" priority="250">
       <formula>AND(G5&lt;0.2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="expression" dxfId="409" priority="201">
+    <cfRule type="expression" dxfId="404" priority="241">
       <formula>AND(0.8&lt;=G5,G5&lt;=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="408" priority="202">
+    <cfRule type="expression" dxfId="403" priority="242">
       <formula>AND(0.6&lt;=G5,G5&lt;=0.8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="407" priority="203">
+    <cfRule type="expression" dxfId="402" priority="243">
       <formula>AND(0.4&lt;=G5,G5&lt;=0.6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="406" priority="204">
+    <cfRule type="expression" dxfId="401" priority="244">
       <formula>AND(0.2&lt;=G5,G5&lt;=0.4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="405" priority="205">
+    <cfRule type="expression" dxfId="400" priority="245">
       <formula>AND(G5&lt;0.2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="expression" dxfId="399" priority="196">
+    <cfRule type="expression" dxfId="399" priority="236">
       <formula>AND(0.8&lt;=C7,C7&lt;=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="398" priority="197">
+    <cfRule type="expression" dxfId="398" priority="237">
       <formula>AND(0.6&lt;=C7,C7&lt;=0.8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="397" priority="198">
+    <cfRule type="expression" dxfId="397" priority="238">
       <formula>AND(0.4&lt;=C7,C7&lt;=0.6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="396" priority="199">
+    <cfRule type="expression" dxfId="396" priority="239">
       <formula>AND(0.2&lt;=C7,C7&lt;=0.4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="395" priority="200">
+    <cfRule type="expression" dxfId="395" priority="240">
       <formula>AND(C7&lt;0.2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7">
-    <cfRule type="expression" dxfId="389" priority="191">
+    <cfRule type="expression" dxfId="394" priority="231">
       <formula>AND(0.8&lt;=C7,C7&lt;=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="388" priority="192">
+    <cfRule type="expression" dxfId="393" priority="232">
       <formula>AND(0.6&lt;=C7,C7&lt;=0.8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="387" priority="193">
+    <cfRule type="expression" dxfId="392" priority="233">
       <formula>AND(0.4&lt;=C7,C7&lt;=0.6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="386" priority="194">
+    <cfRule type="expression" dxfId="391" priority="234">
       <formula>AND(0.2&lt;=C7,C7&lt;=0.4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="385" priority="195">
+    <cfRule type="expression" dxfId="390" priority="235">
       <formula>AND(C7&lt;0.2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="expression" dxfId="379" priority="186">
+    <cfRule type="expression" dxfId="389" priority="226">
       <formula>AND(0.8&lt;=D7,D7&lt;=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="378" priority="187">
+    <cfRule type="expression" dxfId="388" priority="227">
       <formula>AND(0.6&lt;=D7,D7&lt;=0.8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="377" priority="188">
+    <cfRule type="expression" dxfId="387" priority="228">
       <formula>AND(0.4&lt;=D7,D7&lt;=0.6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="376" priority="189">
+    <cfRule type="expression" dxfId="386" priority="229">
       <formula>AND(0.2&lt;=D7,D7&lt;=0.4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="375" priority="190">
+    <cfRule type="expression" dxfId="385" priority="230">
       <formula>AND(D7&lt;0.2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="expression" dxfId="369" priority="181">
+    <cfRule type="expression" dxfId="384" priority="221">
       <formula>AND(0.8&lt;=D7,D7&lt;=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="368" priority="182">
+    <cfRule type="expression" dxfId="383" priority="222">
       <formula>AND(0.6&lt;=D7,D7&lt;=0.8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="367" priority="183">
+    <cfRule type="expression" dxfId="382" priority="223">
       <formula>AND(0.4&lt;=D7,D7&lt;=0.6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="366" priority="184">
+    <cfRule type="expression" dxfId="381" priority="224">
       <formula>AND(0.2&lt;=D7,D7&lt;=0.4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="365" priority="185">
+    <cfRule type="expression" dxfId="380" priority="225">
       <formula>AND(D7&lt;0.2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="expression" dxfId="359" priority="176">
+    <cfRule type="expression" dxfId="379" priority="216">
       <formula>AND(0.8&lt;=E7,E7&lt;=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="358" priority="177">
+    <cfRule type="expression" dxfId="378" priority="217">
       <formula>AND(0.6&lt;=E7,E7&lt;=0.8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="357" priority="178">
+    <cfRule type="expression" dxfId="377" priority="218">
       <formula>AND(0.4&lt;=E7,E7&lt;=0.6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="356" priority="179">
+    <cfRule type="expression" dxfId="376" priority="219">
       <formula>AND(0.2&lt;=E7,E7&lt;=0.4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="355" priority="180">
+    <cfRule type="expression" dxfId="375" priority="220">
       <formula>AND(E7&lt;0.2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="expression" dxfId="349" priority="171">
+    <cfRule type="expression" dxfId="374" priority="211">
       <formula>AND(0.8&lt;=E7,E7&lt;=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="348" priority="172">
+    <cfRule type="expression" dxfId="373" priority="212">
       <formula>AND(0.6&lt;=E7,E7&lt;=0.8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="347" priority="173">
+    <cfRule type="expression" dxfId="372" priority="213">
       <formula>AND(0.4&lt;=E7,E7&lt;=0.6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="346" priority="174">
+    <cfRule type="expression" dxfId="371" priority="214">
       <formula>AND(0.2&lt;=E7,E7&lt;=0.4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="345" priority="175">
+    <cfRule type="expression" dxfId="370" priority="215">
       <formula>AND(E7&lt;0.2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="expression" dxfId="339" priority="166">
+    <cfRule type="expression" dxfId="369" priority="206">
       <formula>AND(0.8&lt;=F7,F7&lt;=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="338" priority="167">
+    <cfRule type="expression" dxfId="368" priority="207">
       <formula>AND(0.6&lt;=F7,F7&lt;=0.8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="337" priority="168">
+    <cfRule type="expression" dxfId="367" priority="208">
       <formula>AND(0.4&lt;=F7,F7&lt;=0.6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="336" priority="169">
+    <cfRule type="expression" dxfId="366" priority="209">
       <formula>AND(0.2&lt;=F7,F7&lt;=0.4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="335" priority="170">
+    <cfRule type="expression" dxfId="365" priority="210">
       <formula>AND(F7&lt;0.2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="expression" dxfId="329" priority="161">
+    <cfRule type="expression" dxfId="364" priority="201">
       <formula>AND(0.8&lt;=F7,F7&lt;=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="328" priority="162">
+    <cfRule type="expression" dxfId="363" priority="202">
       <formula>AND(0.6&lt;=F7,F7&lt;=0.8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="327" priority="163">
+    <cfRule type="expression" dxfId="362" priority="203">
       <formula>AND(0.4&lt;=F7,F7&lt;=0.6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="326" priority="164">
+    <cfRule type="expression" dxfId="361" priority="204">
       <formula>AND(0.2&lt;=F7,F7&lt;=0.4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="325" priority="165">
+    <cfRule type="expression" dxfId="360" priority="205">
       <formula>AND(F7&lt;0.2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="expression" dxfId="319" priority="156">
+    <cfRule type="expression" dxfId="359" priority="196">
       <formula>AND(0.8&lt;=G7,G7&lt;=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="318" priority="157">
+    <cfRule type="expression" dxfId="358" priority="197">
       <formula>AND(0.6&lt;=G7,G7&lt;=0.8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="317" priority="158">
+    <cfRule type="expression" dxfId="357" priority="198">
       <formula>AND(0.4&lt;=G7,G7&lt;=0.6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="316" priority="159">
+    <cfRule type="expression" dxfId="356" priority="199">
       <formula>AND(0.2&lt;=G7,G7&lt;=0.4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="315" priority="160">
+    <cfRule type="expression" dxfId="355" priority="200">
       <formula>AND(G7&lt;0.2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7">
-    <cfRule type="expression" dxfId="309" priority="151">
+    <cfRule type="expression" dxfId="354" priority="191">
       <formula>AND(0.8&lt;=G7,G7&lt;=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="308" priority="152">
+    <cfRule type="expression" dxfId="353" priority="192">
       <formula>AND(0.6&lt;=G7,G7&lt;=0.8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="307" priority="153">
+    <cfRule type="expression" dxfId="352" priority="193">
       <formula>AND(0.4&lt;=G7,G7&lt;=0.6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="306" priority="154">
+    <cfRule type="expression" dxfId="351" priority="194">
       <formula>AND(0.2&lt;=G7,G7&lt;=0.4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="305" priority="155">
+    <cfRule type="expression" dxfId="350" priority="195">
       <formula>AND(G7&lt;0.2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="expression" dxfId="299" priority="146">
+    <cfRule type="expression" dxfId="349" priority="186">
       <formula>AND(0.8&lt;=C9,C9&lt;=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="298" priority="147">
+    <cfRule type="expression" dxfId="348" priority="187">
       <formula>AND(0.6&lt;=C9,C9&lt;=0.8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="297" priority="148">
+    <cfRule type="expression" dxfId="347" priority="188">
       <formula>AND(0.4&lt;=C9,C9&lt;=0.6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="296" priority="149">
+    <cfRule type="expression" dxfId="346" priority="189">
       <formula>AND(0.2&lt;=C9,C9&lt;=0.4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="295" priority="150">
+    <cfRule type="expression" dxfId="345" priority="190">
       <formula>AND(C9&lt;0.2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="expression" dxfId="289" priority="141">
+    <cfRule type="expression" dxfId="344" priority="181">
       <formula>AND(0.8&lt;=C9,C9&lt;=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="288" priority="142">
+    <cfRule type="expression" dxfId="343" priority="182">
       <formula>AND(0.6&lt;=C9,C9&lt;=0.8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="287" priority="143">
+    <cfRule type="expression" dxfId="342" priority="183">
       <formula>AND(0.4&lt;=C9,C9&lt;=0.6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="286" priority="144">
+    <cfRule type="expression" dxfId="341" priority="184">
       <formula>AND(0.2&lt;=C9,C9&lt;=0.4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="285" priority="145">
+    <cfRule type="expression" dxfId="340" priority="185">
       <formula>AND(C9&lt;0.2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="expression" dxfId="279" priority="136">
+    <cfRule type="expression" dxfId="339" priority="176">
       <formula>AND(0.8&lt;=D9,D9&lt;=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="278" priority="137">
+    <cfRule type="expression" dxfId="338" priority="177">
       <formula>AND(0.6&lt;=D9,D9&lt;=0.8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="277" priority="138">
+    <cfRule type="expression" dxfId="337" priority="178">
       <formula>AND(0.4&lt;=D9,D9&lt;=0.6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="276" priority="139">
+    <cfRule type="expression" dxfId="336" priority="179">
       <formula>AND(0.2&lt;=D9,D9&lt;=0.4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="275" priority="140">
+    <cfRule type="expression" dxfId="335" priority="180">
       <formula>AND(D9&lt;0.2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="expression" dxfId="269" priority="131">
+    <cfRule type="expression" dxfId="334" priority="171">
       <formula>AND(0.8&lt;=D9,D9&lt;=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="268" priority="132">
+    <cfRule type="expression" dxfId="333" priority="172">
       <formula>AND(0.6&lt;=D9,D9&lt;=0.8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="267" priority="133">
+    <cfRule type="expression" dxfId="332" priority="173">
       <formula>AND(0.4&lt;=D9,D9&lt;=0.6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="266" priority="134">
+    <cfRule type="expression" dxfId="331" priority="174">
       <formula>AND(0.2&lt;=D9,D9&lt;=0.4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="265" priority="135">
+    <cfRule type="expression" dxfId="330" priority="175">
       <formula>AND(D9&lt;0.2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="expression" dxfId="259" priority="126">
+    <cfRule type="expression" dxfId="329" priority="166">
       <formula>AND(0.8&lt;=E9,E9&lt;=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="258" priority="127">
+    <cfRule type="expression" dxfId="328" priority="167">
       <formula>AND(0.6&lt;=E9,E9&lt;=0.8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="257" priority="128">
+    <cfRule type="expression" dxfId="327" priority="168">
       <formula>AND(0.4&lt;=E9,E9&lt;=0.6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="256" priority="129">
+    <cfRule type="expression" dxfId="326" priority="169">
       <formula>AND(0.2&lt;=E9,E9&lt;=0.4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="255" priority="130">
+    <cfRule type="expression" dxfId="325" priority="170">
       <formula>AND(E9&lt;0.2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="expression" dxfId="249" priority="121">
+    <cfRule type="expression" dxfId="324" priority="161">
       <formula>AND(0.8&lt;=E9,E9&lt;=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="248" priority="122">
+    <cfRule type="expression" dxfId="323" priority="162">
       <formula>AND(0.6&lt;=E9,E9&lt;=0.8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="247" priority="123">
+    <cfRule type="expression" dxfId="322" priority="163">
       <formula>AND(0.4&lt;=E9,E9&lt;=0.6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="246" priority="124">
+    <cfRule type="expression" dxfId="321" priority="164">
       <formula>AND(0.2&lt;=E9,E9&lt;=0.4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="245" priority="125">
+    <cfRule type="expression" dxfId="320" priority="165">
       <formula>AND(E9&lt;0.2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="expression" dxfId="239" priority="116">
+    <cfRule type="expression" dxfId="319" priority="156">
       <formula>AND(0.8&lt;=F9,F9&lt;=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="238" priority="117">
+    <cfRule type="expression" dxfId="318" priority="157">
       <formula>AND(0.6&lt;=F9,F9&lt;=0.8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="237" priority="118">
+    <cfRule type="expression" dxfId="317" priority="158">
       <formula>AND(0.4&lt;=F9,F9&lt;=0.6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="236" priority="119">
+    <cfRule type="expression" dxfId="316" priority="159">
       <formula>AND(0.2&lt;=F9,F9&lt;=0.4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="235" priority="120">
+    <cfRule type="expression" dxfId="315" priority="160">
       <formula>AND(F9&lt;0.2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9">
-    <cfRule type="expression" dxfId="229" priority="111">
+    <cfRule type="expression" dxfId="314" priority="151">
       <formula>AND(0.8&lt;=F9,F9&lt;=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="228" priority="112">
+    <cfRule type="expression" dxfId="313" priority="152">
       <formula>AND(0.6&lt;=F9,F9&lt;=0.8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="227" priority="113">
+    <cfRule type="expression" dxfId="312" priority="153">
       <formula>AND(0.4&lt;=F9,F9&lt;=0.6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="226" priority="114">
+    <cfRule type="expression" dxfId="311" priority="154">
       <formula>AND(0.2&lt;=F9,F9&lt;=0.4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="225" priority="115">
+    <cfRule type="expression" dxfId="310" priority="155">
       <formula>AND(F9&lt;0.2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8">
-    <cfRule type="expression" dxfId="219" priority="106">
+    <cfRule type="expression" dxfId="309" priority="146">
       <formula>AND(0.8&lt;=G9,G9&lt;=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="218" priority="107">
+    <cfRule type="expression" dxfId="308" priority="147">
       <formula>AND(0.6&lt;=G9,G9&lt;=0.8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="217" priority="108">
+    <cfRule type="expression" dxfId="307" priority="148">
       <formula>AND(0.4&lt;=G9,G9&lt;=0.6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="216" priority="109">
+    <cfRule type="expression" dxfId="306" priority="149">
       <formula>AND(0.2&lt;=G9,G9&lt;=0.4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="215" priority="110">
+    <cfRule type="expression" dxfId="305" priority="150">
       <formula>AND(G9&lt;0.2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9">
-    <cfRule type="expression" dxfId="209" priority="101">
+    <cfRule type="expression" dxfId="304" priority="141">
       <formula>AND(0.8&lt;=G9,G9&lt;=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="208" priority="102">
+    <cfRule type="expression" dxfId="303" priority="142">
       <formula>AND(0.6&lt;=G9,G9&lt;=0.8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="207" priority="103">
+    <cfRule type="expression" dxfId="302" priority="143">
       <formula>AND(0.4&lt;=G9,G9&lt;=0.6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="206" priority="104">
+    <cfRule type="expression" dxfId="301" priority="144">
       <formula>AND(0.2&lt;=G9,G9&lt;=0.4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="205" priority="105">
+    <cfRule type="expression" dxfId="300" priority="145">
       <formula>AND(G9&lt;0.2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10">
-    <cfRule type="expression" dxfId="199" priority="96">
+    <cfRule type="expression" dxfId="299" priority="136">
       <formula>AND(0.8&lt;=C11,C11&lt;=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="198" priority="97">
+    <cfRule type="expression" dxfId="298" priority="137">
       <formula>AND(0.6&lt;=C11,C11&lt;=0.8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="197" priority="98">
+    <cfRule type="expression" dxfId="297" priority="138">
       <formula>AND(0.4&lt;=C11,C11&lt;=0.6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="196" priority="99">
+    <cfRule type="expression" dxfId="296" priority="139">
       <formula>AND(0.2&lt;=C11,C11&lt;=0.4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="195" priority="100">
+    <cfRule type="expression" dxfId="295" priority="140">
       <formula>AND(C11&lt;0.2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="expression" dxfId="189" priority="91">
+    <cfRule type="expression" dxfId="294" priority="131">
       <formula>AND(0.8&lt;=C11,C11&lt;=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="188" priority="92">
+    <cfRule type="expression" dxfId="293" priority="132">
       <formula>AND(0.6&lt;=C11,C11&lt;=0.8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="187" priority="93">
+    <cfRule type="expression" dxfId="292" priority="133">
       <formula>AND(0.4&lt;=C11,C11&lt;=0.6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="186" priority="94">
+    <cfRule type="expression" dxfId="291" priority="134">
       <formula>AND(0.2&lt;=C11,C11&lt;=0.4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="185" priority="95">
+    <cfRule type="expression" dxfId="290" priority="135">
       <formula>AND(C11&lt;0.2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10">
-    <cfRule type="expression" dxfId="179" priority="86">
+    <cfRule type="expression" dxfId="289" priority="126">
       <formula>AND(0.8&lt;=D11,D11&lt;=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="178" priority="87">
+    <cfRule type="expression" dxfId="288" priority="127">
       <formula>AND(0.6&lt;=D11,D11&lt;=0.8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="177" priority="88">
+    <cfRule type="expression" dxfId="287" priority="128">
       <formula>AND(0.4&lt;=D11,D11&lt;=0.6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="176" priority="89">
+    <cfRule type="expression" dxfId="286" priority="129">
       <formula>AND(0.2&lt;=D11,D11&lt;=0.4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="175" priority="90">
+    <cfRule type="expression" dxfId="285" priority="130">
       <formula>AND(D11&lt;0.2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="169" priority="81">
+    <cfRule type="expression" dxfId="284" priority="121">
       <formula>AND(0.8&lt;=D11,D11&lt;=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="168" priority="82">
+    <cfRule type="expression" dxfId="283" priority="122">
       <formula>AND(0.6&lt;=D11,D11&lt;=0.8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="167" priority="83">
+    <cfRule type="expression" dxfId="282" priority="123">
       <formula>AND(0.4&lt;=D11,D11&lt;=0.6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="166" priority="84">
+    <cfRule type="expression" dxfId="281" priority="124">
       <formula>AND(0.2&lt;=D11,D11&lt;=0.4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="165" priority="85">
+    <cfRule type="expression" dxfId="280" priority="125">
       <formula>AND(D11&lt;0.2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="expression" dxfId="159" priority="76">
+    <cfRule type="expression" dxfId="279" priority="116">
       <formula>AND(0.8&lt;=E11,E11&lt;=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="158" priority="77">
+    <cfRule type="expression" dxfId="278" priority="117">
       <formula>AND(0.6&lt;=E11,E11&lt;=0.8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="157" priority="78">
+    <cfRule type="expression" dxfId="277" priority="118">
       <formula>AND(0.4&lt;=E11,E11&lt;=0.6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="156" priority="79">
+    <cfRule type="expression" dxfId="276" priority="119">
       <formula>AND(0.2&lt;=E11,E11&lt;=0.4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="155" priority="80">
+    <cfRule type="expression" dxfId="275" priority="120">
       <formula>AND(E11&lt;0.2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="expression" dxfId="149" priority="71">
+    <cfRule type="expression" dxfId="274" priority="111">
       <formula>AND(0.8&lt;=E11,E11&lt;=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="148" priority="72">
+    <cfRule type="expression" dxfId="273" priority="112">
       <formula>AND(0.6&lt;=E11,E11&lt;=0.8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="147" priority="73">
+    <cfRule type="expression" dxfId="272" priority="113">
       <formula>AND(0.4&lt;=E11,E11&lt;=0.6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="146" priority="74">
+    <cfRule type="expression" dxfId="271" priority="114">
       <formula>AND(0.2&lt;=E11,E11&lt;=0.4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="145" priority="75">
+    <cfRule type="expression" dxfId="270" priority="115">
       <formula>AND(E11&lt;0.2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="expression" dxfId="139" priority="66">
+    <cfRule type="expression" dxfId="269" priority="106">
       <formula>AND(0.8&lt;=F11,F11&lt;=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="138" priority="67">
+    <cfRule type="expression" dxfId="268" priority="107">
       <formula>AND(0.6&lt;=F11,F11&lt;=0.8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="137" priority="68">
+    <cfRule type="expression" dxfId="267" priority="108">
       <formula>AND(0.4&lt;=F11,F11&lt;=0.6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="136" priority="69">
+    <cfRule type="expression" dxfId="266" priority="109">
       <formula>AND(0.2&lt;=F11,F11&lt;=0.4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="135" priority="70">
+    <cfRule type="expression" dxfId="265" priority="110">
       <formula>AND(F11&lt;0.2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11">
-    <cfRule type="expression" dxfId="129" priority="61">
+    <cfRule type="expression" dxfId="264" priority="101">
       <formula>AND(0.8&lt;=F11,F11&lt;=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="128" priority="62">
+    <cfRule type="expression" dxfId="263" priority="102">
       <formula>AND(0.6&lt;=F11,F11&lt;=0.8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="127" priority="63">
+    <cfRule type="expression" dxfId="262" priority="103">
       <formula>AND(0.4&lt;=F11,F11&lt;=0.6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="126" priority="64">
+    <cfRule type="expression" dxfId="261" priority="104">
       <formula>AND(0.2&lt;=F11,F11&lt;=0.4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="125" priority="65">
+    <cfRule type="expression" dxfId="260" priority="105">
       <formula>AND(F11&lt;0.2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="expression" dxfId="119" priority="56">
+    <cfRule type="expression" dxfId="259" priority="96">
       <formula>AND(0.8&lt;=G11,G11&lt;=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="118" priority="57">
+    <cfRule type="expression" dxfId="258" priority="97">
       <formula>AND(0.6&lt;=G11,G11&lt;=0.8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="117" priority="58">
+    <cfRule type="expression" dxfId="257" priority="98">
       <formula>AND(0.4&lt;=G11,G11&lt;=0.6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="116" priority="59">
+    <cfRule type="expression" dxfId="256" priority="99">
       <formula>AND(0.2&lt;=G11,G11&lt;=0.4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="115" priority="60">
+    <cfRule type="expression" dxfId="255" priority="100">
       <formula>AND(G11&lt;0.2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="expression" dxfId="109" priority="51">
+    <cfRule type="expression" dxfId="254" priority="91">
       <formula>AND(0.8&lt;=G11,G11&lt;=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="108" priority="52">
+    <cfRule type="expression" dxfId="253" priority="92">
       <formula>AND(0.6&lt;=G11,G11&lt;=0.8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="107" priority="53">
+    <cfRule type="expression" dxfId="252" priority="93">
       <formula>AND(0.4&lt;=G11,G11&lt;=0.6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="106" priority="54">
+    <cfRule type="expression" dxfId="251" priority="94">
       <formula>AND(0.2&lt;=G11,G11&lt;=0.4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="105" priority="55">
+    <cfRule type="expression" dxfId="250" priority="95">
       <formula>AND(G11&lt;0.2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="expression" dxfId="99" priority="46">
+    <cfRule type="expression" dxfId="249" priority="86">
       <formula>AND(0.8&lt;=C13,C13&lt;=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="98" priority="47">
+    <cfRule type="expression" dxfId="248" priority="87">
       <formula>AND(0.6&lt;=C13,C13&lt;=0.8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="97" priority="48">
+    <cfRule type="expression" dxfId="247" priority="88">
       <formula>AND(0.4&lt;=C13,C13&lt;=0.6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="49">
+    <cfRule type="expression" dxfId="246" priority="89">
       <formula>AND(0.2&lt;=C13,C13&lt;=0.4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="95" priority="50">
+    <cfRule type="expression" dxfId="245" priority="90">
       <formula>AND(C13&lt;0.2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13">
-    <cfRule type="expression" dxfId="89" priority="41">
+    <cfRule type="expression" dxfId="244" priority="81">
       <formula>AND(0.8&lt;=C13,C13&lt;=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="42">
+    <cfRule type="expression" dxfId="243" priority="82">
       <formula>AND(0.6&lt;=C13,C13&lt;=0.8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="87" priority="43">
+    <cfRule type="expression" dxfId="242" priority="83">
       <formula>AND(0.4&lt;=C13,C13&lt;=0.6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="86" priority="44">
+    <cfRule type="expression" dxfId="241" priority="84">
       <formula>AND(0.2&lt;=C13,C13&lt;=0.4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="45">
+    <cfRule type="expression" dxfId="240" priority="85">
       <formula>AND(C13&lt;0.2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="expression" dxfId="79" priority="36">
+    <cfRule type="expression" dxfId="239" priority="76">
       <formula>AND(0.8&lt;=D13,D13&lt;=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="37">
+    <cfRule type="expression" dxfId="238" priority="77">
       <formula>AND(0.6&lt;=D13,D13&lt;=0.8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="77" priority="38">
+    <cfRule type="expression" dxfId="237" priority="78">
       <formula>AND(0.4&lt;=D13,D13&lt;=0.6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="39">
+    <cfRule type="expression" dxfId="236" priority="79">
       <formula>AND(0.2&lt;=D13,D13&lt;=0.4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="40">
+    <cfRule type="expression" dxfId="235" priority="80">
       <formula>AND(D13&lt;0.2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="expression" dxfId="69" priority="31">
+    <cfRule type="expression" dxfId="234" priority="71">
       <formula>AND(0.8&lt;=D13,D13&lt;=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="32">
+    <cfRule type="expression" dxfId="233" priority="72">
       <formula>AND(0.6&lt;=D13,D13&lt;=0.8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="33">
+    <cfRule type="expression" dxfId="232" priority="73">
       <formula>AND(0.4&lt;=D13,D13&lt;=0.6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="34">
+    <cfRule type="expression" dxfId="231" priority="74">
       <formula>AND(0.2&lt;=D13,D13&lt;=0.4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="65" priority="35">
+    <cfRule type="expression" dxfId="230" priority="75">
       <formula>AND(D13&lt;0.2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="expression" dxfId="59" priority="26">
+    <cfRule type="expression" dxfId="229" priority="66">
       <formula>AND(0.8&lt;=E13,E13&lt;=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="27">
+    <cfRule type="expression" dxfId="228" priority="67">
       <formula>AND(0.6&lt;=E13,E13&lt;=0.8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="28">
+    <cfRule type="expression" dxfId="227" priority="68">
       <formula>AND(0.4&lt;=E13,E13&lt;=0.6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="29">
+    <cfRule type="expression" dxfId="226" priority="69">
       <formula>AND(0.2&lt;=E13,E13&lt;=0.4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="30">
+    <cfRule type="expression" dxfId="225" priority="70">
       <formula>AND(E13&lt;0.2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="expression" dxfId="49" priority="21">
+    <cfRule type="expression" dxfId="224" priority="61">
       <formula>AND(0.8&lt;=E13,E13&lt;=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="22">
+    <cfRule type="expression" dxfId="223" priority="62">
       <formula>AND(0.6&lt;=E13,E13&lt;=0.8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="47" priority="23">
+    <cfRule type="expression" dxfId="222" priority="63">
       <formula>AND(0.4&lt;=E13,E13&lt;=0.6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="24">
+    <cfRule type="expression" dxfId="221" priority="64">
       <formula>AND(0.2&lt;=E13,E13&lt;=0.4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="25">
+    <cfRule type="expression" dxfId="220" priority="65">
       <formula>AND(E13&lt;0.2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="expression" dxfId="39" priority="16">
+    <cfRule type="expression" dxfId="219" priority="56">
       <formula>AND(0.8&lt;=F13,F13&lt;=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="17">
+    <cfRule type="expression" dxfId="218" priority="57">
       <formula>AND(0.6&lt;=F13,F13&lt;=0.8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="18">
+    <cfRule type="expression" dxfId="217" priority="58">
       <formula>AND(0.4&lt;=F13,F13&lt;=0.6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="19">
+    <cfRule type="expression" dxfId="216" priority="59">
       <formula>AND(0.2&lt;=F13,F13&lt;=0.4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="20">
+    <cfRule type="expression" dxfId="215" priority="60">
       <formula>AND(F13&lt;0.2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13">
-    <cfRule type="expression" dxfId="29" priority="11">
+    <cfRule type="expression" dxfId="214" priority="51">
       <formula>AND(0.8&lt;=F13,F13&lt;=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="12">
+    <cfRule type="expression" dxfId="213" priority="52">
       <formula>AND(0.6&lt;=F13,F13&lt;=0.8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="13">
+    <cfRule type="expression" dxfId="212" priority="53">
       <formula>AND(0.4&lt;=F13,F13&lt;=0.6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="14">
+    <cfRule type="expression" dxfId="211" priority="54">
       <formula>AND(0.2&lt;=F13,F13&lt;=0.4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="15">
+    <cfRule type="expression" dxfId="210" priority="55">
       <formula>AND(F13&lt;0.2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="expression" dxfId="19" priority="6">
+    <cfRule type="expression" dxfId="209" priority="46">
       <formula>AND(0.8&lt;=G13,G13&lt;=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="7">
+    <cfRule type="expression" dxfId="208" priority="47">
       <formula>AND(0.6&lt;=G13,G13&lt;=0.8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="8">
+    <cfRule type="expression" dxfId="207" priority="48">
       <formula>AND(0.4&lt;=G13,G13&lt;=0.6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="9">
+    <cfRule type="expression" dxfId="206" priority="49">
       <formula>AND(0.2&lt;=G13,G13&lt;=0.4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="10">
+    <cfRule type="expression" dxfId="205" priority="50">
       <formula>AND(G13&lt;0.2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13">
+    <cfRule type="expression" dxfId="204" priority="41">
+      <formula>AND(0.8&lt;=G13,G13&lt;=1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="203" priority="42">
+      <formula>AND(0.6&lt;=G13,G13&lt;=0.8)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="202" priority="43">
+      <formula>AND(0.4&lt;=G13,G13&lt;=0.6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="201" priority="44">
+      <formula>AND(0.2&lt;=G13,G13&lt;=0.4)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="200" priority="45">
+      <formula>AND(G13&lt;0.2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M11">
+    <cfRule type="expression" dxfId="79" priority="36">
+      <formula>AND(0.8&lt;=M12,M12&lt;=1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="78" priority="37">
+      <formula>AND(0.6&lt;=M12,M12&lt;=0.8)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="77" priority="38">
+      <formula>AND(0.4&lt;=M12,M12&lt;=0.6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="76" priority="39">
+      <formula>AND(0.2&lt;=M12,M12&lt;=0.4)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="75" priority="40">
+      <formula>AND(M12&lt;0.2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M12">
+    <cfRule type="expression" dxfId="69" priority="31">
+      <formula>AND(0.8&lt;=M12,M12&lt;=1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="68" priority="32">
+      <formula>AND(0.6&lt;=M12,M12&lt;=0.8)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="67" priority="33">
+      <formula>AND(0.4&lt;=M12,M12&lt;=0.6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="66" priority="34">
+      <formula>AND(0.2&lt;=M12,M12&lt;=0.4)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="65" priority="35">
+      <formula>AND(M12&lt;0.2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N11">
+    <cfRule type="expression" dxfId="59" priority="26">
+      <formula>AND(0.8&lt;=N12,N12&lt;=1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="58" priority="27">
+      <formula>AND(0.6&lt;=N12,N12&lt;=0.8)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="57" priority="28">
+      <formula>AND(0.4&lt;=N12,N12&lt;=0.6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="56" priority="29">
+      <formula>AND(0.2&lt;=N12,N12&lt;=0.4)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="55" priority="30">
+      <formula>AND(N12&lt;0.2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N12">
+    <cfRule type="expression" dxfId="49" priority="21">
+      <formula>AND(0.8&lt;=N12,N12&lt;=1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="48" priority="22">
+      <formula>AND(0.6&lt;=N12,N12&lt;=0.8)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="47" priority="23">
+      <formula>AND(0.4&lt;=N12,N12&lt;=0.6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="46" priority="24">
+      <formula>AND(0.2&lt;=N12,N12&lt;=0.4)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="45" priority="25">
+      <formula>AND(N12&lt;0.2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M13">
+    <cfRule type="expression" dxfId="39" priority="16">
+      <formula>AND(0.8&lt;=M14,M14&lt;=1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="38" priority="17">
+      <formula>AND(0.6&lt;=M14,M14&lt;=0.8)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="37" priority="18">
+      <formula>AND(0.4&lt;=M14,M14&lt;=0.6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="36" priority="19">
+      <formula>AND(0.2&lt;=M14,M14&lt;=0.4)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="35" priority="20">
+      <formula>AND(M14&lt;0.2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M14">
+    <cfRule type="expression" dxfId="29" priority="11">
+      <formula>AND(0.8&lt;=M14,M14&lt;=1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="12">
+      <formula>AND(0.6&lt;=M14,M14&lt;=0.8)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="27" priority="13">
+      <formula>AND(0.4&lt;=M14,M14&lt;=0.6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="14">
+      <formula>AND(0.2&lt;=M14,M14&lt;=0.4)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="25" priority="15">
+      <formula>AND(M14&lt;0.2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N13">
+    <cfRule type="expression" dxfId="19" priority="6">
+      <formula>AND(0.8&lt;=N14,N14&lt;=1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="7">
+      <formula>AND(0.6&lt;=N14,N14&lt;=0.8)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="17" priority="8">
+      <formula>AND(0.4&lt;=N14,N14&lt;=0.6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="9">
+      <formula>AND(0.2&lt;=N14,N14&lt;=0.4)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="15" priority="10">
+      <formula>AND(N14&lt;0.2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N14">
     <cfRule type="expression" dxfId="9" priority="1">
-      <formula>AND(0.8&lt;=G13,G13&lt;=1)</formula>
+      <formula>AND(0.8&lt;=N14,N14&lt;=1)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="8" priority="2">
-      <formula>AND(0.6&lt;=G13,G13&lt;=0.8)</formula>
+      <formula>AND(0.6&lt;=N14,N14&lt;=0.8)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="7" priority="3">
-      <formula>AND(0.4&lt;=G13,G13&lt;=0.6)</formula>
+      <formula>AND(0.4&lt;=N14,N14&lt;=0.6)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="6" priority="4">
-      <formula>AND(0.2&lt;=G13,G13&lt;=0.4)</formula>
+      <formula>AND(0.2&lt;=N14,N14&lt;=0.4)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="5" priority="5">
-      <formula>AND(G13&lt;0.2)</formula>
+      <formula>AND(N14&lt;0.2)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
